--- a/BackTest/2019-10-29 BackTest MIX.xlsx
+++ b/BackTest/2019-10-29 BackTest MIX.xlsx
@@ -451,17 +451,13 @@
         <v>9.273000000000005</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>9.274500000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>9.271000000000004</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>9.269500000000004</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>9.268500000000005</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>9.267500000000004</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>9.267500000000004</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>9.264500000000004</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>9.264000000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>9.265500000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>9.269000000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>9.273500000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>9.280000000000005</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>9.286000000000005</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>9.290500000000005</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>9.295000000000005</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>9.301500000000004</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>9.312000000000005</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1227,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1268,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1309,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1391,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1473,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1514,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1555,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1596,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1637,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1678,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1719,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1760,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1801,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1842,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1924,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2006,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2047,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2088,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2129,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2293,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2375,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2416,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2457,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2498,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2539,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2580,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2662,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2703,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2744,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2785,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2826,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2867,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2908,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2949,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2990,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3031,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3072,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3113,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3154,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3195,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3233,17 +2799,11 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3277,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3318,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3359,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3400,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3441,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3482,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3523,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3564,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3605,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3646,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3687,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3728,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3769,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3810,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3892,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3933,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3974,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4015,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4097,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4179,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4217,19 +3639,13 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>1.038057050592035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -4258,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4608,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4643,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -6565,14 +5981,20 @@
         <v>9.852500000000003</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9.76</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6600,14 +6022,20 @@
         <v>9.839000000000002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>9.69</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6635,14 +6063,20 @@
         <v>9.832500000000003</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9.76</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6677,7 +6111,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6712,7 +6150,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6747,7 +6189,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6782,7 +6228,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6817,7 +6267,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +6306,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6887,7 +6345,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6922,7 +6384,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6950,14 +6416,20 @@
         <v>9.792000000000005</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9.720000000000001</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6992,7 +6464,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7020,14 +6496,20 @@
         <v>9.780500000000007</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +6537,20 @@
         <v>9.775000000000007</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7097,7 +6585,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7132,7 +6624,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7167,7 +6663,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7195,14 +6695,20 @@
         <v>9.753000000000005</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7237,7 +6743,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7272,7 +6782,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +6821,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7342,7 +6860,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7377,7 +6899,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7412,7 +6938,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7447,7 +6977,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7482,7 +7016,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7055,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7552,7 +7094,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7587,7 +7133,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7622,7 +7172,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7657,7 +7211,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7692,7 +7250,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7727,7 +7289,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7762,7 +7328,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +7367,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7832,7 +7406,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7867,7 +7445,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +7484,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7937,7 +7523,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7972,7 +7562,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +7601,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8042,7 +7640,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8077,7 +7679,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8112,7 +7718,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8147,7 +7757,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8182,7 +7796,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +7835,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8252,7 +7874,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8287,7 +7913,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8322,7 +7952,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8357,7 +7991,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8392,7 +8030,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8427,7 +8069,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8462,7 +8108,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8497,7 +8147,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8532,7 +8186,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8567,7 +8225,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8602,7 +8264,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +8303,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8342,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8707,7 +8381,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8742,7 +8420,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8777,7 +8459,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8812,7 +8498,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8847,7 +8537,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8882,7 +8576,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +8615,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +8654,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8987,7 +8693,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9022,7 +8732,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +8771,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9092,7 +8810,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9127,7 +8849,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9162,7 +8888,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9197,7 +8927,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9232,7 +8966,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9267,7 +9005,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9302,7 +9044,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9337,7 +9083,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9372,7 +9122,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9407,7 +9161,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9442,7 +9200,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9477,7 +9239,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9512,7 +9278,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9547,7 +9317,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9582,7 +9356,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9613,11 +9391,15 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9652,7 +9434,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9687,7 +9473,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9722,7 +9512,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9757,7 +9551,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9792,7 +9590,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +9629,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9862,7 +9668,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9897,7 +9707,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9932,7 +9746,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9967,7 +9785,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10002,7 +9824,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10037,7 +9863,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10072,7 +9902,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10107,7 +9941,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10142,7 +9980,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10177,7 +10019,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10212,7 +10058,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10247,7 +10097,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10282,7 +10136,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +10175,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10352,7 +10214,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10387,7 +10253,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10422,7 +10292,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10457,7 +10331,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10492,7 +10370,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10527,7 +10409,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10562,7 +10448,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10597,7 +10487,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10632,7 +10526,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10667,7 +10565,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10702,7 +10604,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10737,7 +10643,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10772,7 +10682,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10807,7 +10721,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10842,7 +10760,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10877,7 +10799,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10912,7 +10838,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10947,7 +10877,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +10916,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11017,7 +10955,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11052,7 +10994,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11087,7 +11033,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11122,7 +11072,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11157,7 +11111,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11192,7 +11150,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11227,7 +11189,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11262,7 +11228,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11297,7 +11267,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11332,7 +11306,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11367,7 +11345,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11402,7 +11384,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11437,7 +11423,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11472,7 +11462,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11507,7 +11501,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11542,7 +11540,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11577,7 +11579,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11612,7 +11618,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11647,7 +11657,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11682,7 +11696,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11717,7 +11735,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11752,7 +11774,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11787,7 +11813,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11822,7 +11852,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11857,7 +11891,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11892,7 +11930,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11927,7 +11969,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11962,7 +12008,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11997,7 +12047,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12032,7 +12086,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12067,7 +12125,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12102,7 +12164,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12203,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12172,7 +12242,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12207,7 +12281,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12242,7 +12320,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12277,7 +12359,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12312,7 +12398,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12347,7 +12437,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12382,7 +12476,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12417,7 +12515,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12452,7 +12554,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12487,7 +12593,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12522,7 +12632,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12557,7 +12671,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12592,7 +12710,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12627,7 +12749,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12662,7 +12788,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12697,7 +12827,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12732,7 +12866,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12767,7 +12905,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12802,7 +12944,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12837,7 +12983,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12872,7 +13022,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12907,7 +13061,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12942,7 +13100,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12977,7 +13139,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +13178,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13047,7 +13217,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13082,7 +13256,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13117,7 +13295,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13152,7 +13334,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13187,7 +13373,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13222,7 +13412,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13257,7 +13451,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13490,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13327,7 +13529,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13362,7 +13568,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13397,7 +13607,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13432,7 +13646,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13467,7 +13685,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13502,7 +13724,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13537,7 +13763,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13572,7 +13802,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13607,7 +13841,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13642,7 +13880,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13677,7 +13919,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13712,7 +13958,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13747,7 +13997,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13782,7 +14036,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13817,7 +14075,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13852,7 +14114,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13887,7 +14153,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13922,7 +14192,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13957,7 +14231,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13992,7 +14270,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14027,7 +14309,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14062,7 +14348,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14097,7 +14387,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14132,7 +14426,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14167,7 +14465,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14202,7 +14504,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14237,7 +14543,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14272,7 +14582,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14307,7 +14621,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14342,7 +14660,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14377,7 +14699,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14412,7 +14738,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14777,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14482,7 +14816,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14517,7 +14855,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14552,7 +14894,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14587,7 +14933,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14622,7 +14972,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14657,7 +15011,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14692,7 +15050,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14727,7 +15089,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14762,7 +15128,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14797,7 +15167,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14832,7 +15206,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14867,7 +15245,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14902,7 +15284,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14937,7 +15323,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14972,7 +15362,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15007,7 +15401,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15042,7 +15440,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15077,7 +15479,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15112,7 +15518,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15147,7 +15557,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15182,7 +15596,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15217,7 +15635,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15252,7 +15674,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15287,7 +15713,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15322,7 +15752,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15357,7 +15791,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15392,7 +15830,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15427,7 +15869,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15462,7 +15908,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15497,7 +15947,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15532,7 +15986,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15567,7 +16025,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +16064,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15637,7 +16103,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15672,7 +16142,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15707,7 +16181,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15742,7 +16220,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15777,7 +16259,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15812,7 +16298,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15847,7 +16337,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15882,7 +16376,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15917,7 +16415,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15952,7 +16454,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15987,7 +16493,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16022,7 +16532,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16057,7 +16571,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16092,7 +16610,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16127,7 +16649,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16162,7 +16688,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16197,7 +16727,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16232,7 +16766,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16267,7 +16805,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16302,7 +16844,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16337,7 +16883,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16372,7 +16922,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16407,7 +16961,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16442,7 +17000,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16477,7 +17039,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16512,7 +17078,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16547,7 +17117,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16582,7 +17156,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16617,7 +17195,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16652,7 +17234,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16687,7 +17273,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16722,7 +17312,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17351,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16792,7 +17390,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16827,7 +17429,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16862,7 +17468,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16897,7 +17507,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16932,7 +17546,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16967,7 +17585,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17002,7 +17624,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17037,7 +17663,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17072,7 +17702,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17107,7 +17741,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17142,7 +17780,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17177,7 +17819,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17212,7 +17858,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17247,7 +17897,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17282,7 +17936,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17317,7 +17975,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17352,7 +18014,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17387,7 +18053,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17422,7 +18092,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17457,7 +18131,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17492,7 +18170,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17527,7 +18209,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17562,7 +18248,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17597,7 +18287,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17632,7 +18326,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17667,7 +18365,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17702,7 +18404,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17737,7 +18443,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17772,7 +18482,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17807,7 +18521,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17842,7 +18560,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17877,7 +18599,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18638,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17947,7 +18677,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17982,7 +18716,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18017,7 +18755,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18052,7 +18794,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18087,7 +18833,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18122,7 +18872,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18157,7 +18911,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18192,7 +18950,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18227,7 +18989,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18262,7 +19028,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18297,7 +19067,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18332,7 +19106,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18367,7 +19145,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18402,7 +19184,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18430,14 +19216,20 @@
         <v>9.583500000000008</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>9.539999999999999</v>
+      </c>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18472,7 +19264,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18500,14 +19296,20 @@
         <v>9.575500000000007</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>9.57</v>
+      </c>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18542,7 +19344,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18570,14 +19376,20 @@
         <v>9.569000000000006</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>9.57</v>
+      </c>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18612,7 +19424,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18647,7 +19463,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18682,7 +19502,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18717,7 +19541,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18745,14 +19573,20 @@
         <v>9.557500000000008</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>9.58</v>
+      </c>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18787,7 +19621,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18822,7 +19660,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18857,7 +19699,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18892,7 +19738,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18927,7 +19777,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18962,7 +19816,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18997,7 +19855,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19032,7 +19894,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +19933,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19102,7 +19972,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19137,7 +20011,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19172,7 +20050,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19207,7 +20089,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19242,7 +20128,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19277,7 +20167,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19312,7 +20206,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19347,7 +20245,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19382,7 +20284,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19417,7 +20323,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19452,7 +20362,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19487,7 +20401,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19522,7 +20440,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19557,7 +20479,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19592,7 +20518,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19627,7 +20557,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19662,7 +20596,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19697,7 +20635,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19732,7 +20674,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19767,7 +20713,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19802,7 +20752,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19837,7 +20791,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19872,7 +20830,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19907,7 +20869,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19942,7 +20908,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19977,7 +20947,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20012,7 +20986,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20047,7 +21025,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20082,7 +21064,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20117,7 +21103,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20152,7 +21142,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20187,7 +21181,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +21220,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20257,7 +21259,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20292,7 +21298,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20327,7 +21337,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20362,7 +21376,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20397,7 +21415,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20432,7 +21454,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20467,7 +21493,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20502,7 +21532,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20537,7 +21571,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20572,7 +21610,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20607,7 +21649,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20642,7 +21688,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20677,7 +21727,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20712,7 +21766,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20747,7 +21805,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20782,7 +21844,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20817,7 +21883,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20852,7 +21922,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20887,7 +21961,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20922,7 +22000,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20957,7 +22039,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20992,7 +22078,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21027,7 +22117,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21062,7 +22156,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21097,7 +22195,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21132,7 +22234,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21167,7 +22273,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21202,7 +22312,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21237,7 +22351,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21272,7 +22390,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21307,7 +22429,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21342,7 +22468,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +22507,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21412,7 +22546,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest MIX.xlsx
+++ b/BackTest/2019-10-29 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>221565.8105917559</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>485649.0923917559</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>9.35</v>
@@ -521,7 +521,7 @@
         <v>679248.2116917559</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>9.359999999999999</v>
@@ -562,7 +562,7 @@
         <v>679248.2116917559</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>9.380000000000001</v>
@@ -603,1030 +603,848 @@
         <v>789298.8305917559</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>9.380000000000001</v>
       </c>
-      <c r="J6" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="C7" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>42578.0633</v>
+      </c>
+      <c r="G7" t="n">
+        <v>789298.8305917559</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33275.3993</v>
+      </c>
+      <c r="G8" t="n">
+        <v>789298.8305917559</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5430.1363</v>
+      </c>
+      <c r="G9" t="n">
+        <v>789298.8305917559</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>42.247</v>
+      </c>
+      <c r="G10" t="n">
+        <v>789298.8305917559</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>117358.7342</v>
+      </c>
+      <c r="G11" t="n">
+        <v>789298.8305917559</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>636439.6122</v>
+      </c>
+      <c r="G12" t="n">
+        <v>152859.2183917559</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F13" t="n">
+        <v>96190.05710000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>56669.16129175594</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>69.3763</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56738.53759175594</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30.8644</v>
+      </c>
+      <c r="G15" t="n">
+        <v>56707.67319175594</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>56717.67319175594</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="F17" t="n">
+        <v>182686.3609</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56717.67319175594</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3911.9634</v>
+      </c>
+      <c r="G18" t="n">
+        <v>52805.70979175594</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="F19" t="n">
+        <v>42307.9743</v>
+      </c>
+      <c r="G19" t="n">
+        <v>95113.68409175595</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="F20" t="n">
+        <v>214301.4745</v>
+      </c>
+      <c r="G20" t="n">
+        <v>95113.68409175595</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64366.49</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30747.19409175595</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>83290.31909999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-52543.12500824405</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86973.4105</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-139516.535508244</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="F24" t="n">
+        <v>145761.7763</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-139516.535508244</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>203416.2016</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-342932.737108244</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>37212.2284</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-380144.9655082441</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4834.4277</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-380144.9655082441</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F28" t="n">
+        <v>59720.4008</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-439865.3663082441</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F29" t="n">
+        <v>33855.7798</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-439865.3663082441</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>82441.7984</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-439865.3663082441</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="F31" t="n">
+        <v>201301.7452</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-641167.1115082441</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>42578.0633</v>
-      </c>
-      <c r="G7" t="n">
-        <v>789298.8305917559</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33275.3993</v>
-      </c>
-      <c r="G8" t="n">
-        <v>789298.8305917559</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5430.1363</v>
-      </c>
-      <c r="G9" t="n">
-        <v>789298.8305917559</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>42.247</v>
-      </c>
-      <c r="G10" t="n">
-        <v>789298.8305917559</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>117358.7342</v>
-      </c>
-      <c r="G11" t="n">
-        <v>789298.8305917559</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>636439.6122</v>
-      </c>
-      <c r="G12" t="n">
-        <v>152859.2183917559</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F13" t="n">
-        <v>96190.05710000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>56669.16129175594</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>69.3763</v>
-      </c>
-      <c r="G14" t="n">
-        <v>56738.53759175594</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>30.8644</v>
-      </c>
-      <c r="G15" t="n">
-        <v>56707.67319175594</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>56717.67319175594</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="F17" t="n">
-        <v>182686.3609</v>
-      </c>
-      <c r="G17" t="n">
-        <v>56717.67319175594</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3911.9634</v>
-      </c>
-      <c r="G18" t="n">
-        <v>52805.70979175594</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="F19" t="n">
-        <v>42307.9743</v>
-      </c>
-      <c r="G19" t="n">
-        <v>95113.68409175595</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="D20" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="F20" t="n">
-        <v>214301.4745</v>
-      </c>
-      <c r="G20" t="n">
-        <v>95113.68409175595</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>64366.49</v>
-      </c>
-      <c r="G21" t="n">
-        <v>30747.19409175595</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>83290.31909999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-52543.12500824405</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="D23" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F23" t="n">
-        <v>86973.4105</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-139516.535508244</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="D24" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F24" t="n">
-        <v>145761.7763</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-139516.535508244</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="D25" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="E25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="F25" t="n">
-        <v>203416.2016</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-342932.737108244</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="J25" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="D26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="F26" t="n">
-        <v>37212.2284</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-380144.9655082441</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="C27" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="D27" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4834.4277</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-380144.9655082441</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="C28" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="F28" t="n">
-        <v>59720.4008</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-439865.3663082441</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="J28" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D29" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="F29" t="n">
-        <v>33855.7798</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-439865.3663082441</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="C30" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D30" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="F30" t="n">
-        <v>82441.7984</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-439865.3663082441</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="C31" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="D31" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="E31" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="F31" t="n">
-        <v>201301.7452</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-641167.1115082441</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J31" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1655,13 +1473,13 @@
         <v>-613701.1389082441</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>9.18</v>
       </c>
       <c r="J32" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1696,13 +1514,13 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1737,13 +1555,13 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>9.23</v>
       </c>
       <c r="J34" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1778,13 +1596,13 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>9.23</v>
       </c>
       <c r="J35" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1819,13 +1637,13 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>9.23</v>
       </c>
       <c r="J36" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1860,13 +1678,13 @@
         <v>-67189.94750824406</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>9.23</v>
       </c>
       <c r="J37" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1901,13 +1719,13 @@
         <v>-97199.94750824406</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1942,13 +1760,13 @@
         <v>-97199.94750824406</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1983,13 +1801,13 @@
         <v>-109168.3936082441</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2024,13 +1842,13 @@
         <v>-109168.3936082441</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>9.25</v>
       </c>
       <c r="J41" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2065,13 +1883,13 @@
         <v>-109168.3936082441</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>9.25</v>
       </c>
       <c r="J42" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2106,13 +1924,13 @@
         <v>-109097.6855082441</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>9.25</v>
       </c>
       <c r="J43" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2147,13 +1965,13 @@
         <v>-109097.6855082441</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>9.32</v>
       </c>
       <c r="J44" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2188,13 +2006,13 @@
         <v>-109215.5962082441</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>9.32</v>
       </c>
       <c r="J45" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2229,13 +2047,13 @@
         <v>-170323.1474082441</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>9.31</v>
       </c>
       <c r="J46" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2270,13 +2088,13 @@
         <v>-170323.1474082441</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>9.27</v>
       </c>
       <c r="J47" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2311,13 +2129,13 @@
         <v>48135.14099175594</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>9.27</v>
       </c>
       <c r="J48" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2352,13 +2170,13 @@
         <v>48135.14099175594</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2393,13 +2211,13 @@
         <v>-1874.859008244064</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2434,13 +2252,13 @@
         <v>-1874.859008244064</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>9.25</v>
       </c>
       <c r="J51" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2475,13 +2293,13 @@
         <v>-11003.32220824406</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>9.25</v>
       </c>
       <c r="J52" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2516,13 +2334,13 @@
         <v>-19409.51220824406</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>9.24</v>
       </c>
       <c r="J53" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2557,13 +2375,13 @@
         <v>190020.3771917559</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2598,13 +2416,13 @@
         <v>184798.4810917559</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2639,13 +2457,13 @@
         <v>184798.4810917559</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>9.279999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2680,13 +2498,13 @@
         <v>184798.4810917559</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>9.279999999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2721,13 +2539,13 @@
         <v>165285.4982917559</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>9.279999999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2762,13 +2580,13 @@
         <v>168030.3791917559</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>9.27</v>
       </c>
       <c r="J59" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2803,13 +2621,13 @@
         <v>168030.3791917559</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>9.279999999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2844,13 +2662,13 @@
         <v>168040.3791917559</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>9.279999999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2885,13 +2703,13 @@
         <v>139310.1747917559</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2926,13 +2744,13 @@
         <v>89133.85339175591</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>9.26</v>
       </c>
       <c r="J63" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2967,13 +2785,13 @@
         <v>89143.85339175591</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>9.25</v>
       </c>
       <c r="J64" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3008,13 +2826,11 @@
         <v>89143.85339175591</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9.289999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3049,13 +2865,13 @@
         <v>89143.85339175591</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3090,13 +2906,13 @@
         <v>-145799.7042082441</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3131,13 +2947,13 @@
         <v>-95448.2618082441</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>9.25</v>
       </c>
       <c r="J68" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3172,13 +2988,13 @@
         <v>-20066.1653082441</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3213,13 +3029,13 @@
         <v>-20066.1653082441</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>9.33</v>
       </c>
       <c r="J70" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3254,13 +3070,13 @@
         <v>-329918.6969082441</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>9.33</v>
       </c>
       <c r="J71" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3295,13 +3111,13 @@
         <v>-319299.9938082441</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>9.32</v>
       </c>
       <c r="J72" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3336,13 +3152,13 @@
         <v>-319299.9938082441</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>9.33</v>
       </c>
       <c r="J73" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3377,13 +3193,13 @@
         <v>-271030.5821082441</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>9.33</v>
       </c>
       <c r="J74" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3418,13 +3234,13 @@
         <v>-264030.5821082441</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>9.35</v>
       </c>
       <c r="J75" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3459,13 +3275,13 @@
         <v>261925.1499917559</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3500,13 +3316,13 @@
         <v>2681451.209691756</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>9.4</v>
       </c>
       <c r="J77" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3541,13 +3357,11 @@
         <v>4085809.548391756</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>9.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3582,13 +3396,11 @@
         <v>4085604.007491756</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>9.529999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3627,7 +3439,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3666,7 +3478,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3705,7 +3517,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3744,7 +3556,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3783,7 +3595,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3822,7 +3634,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3861,7 +3673,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3900,7 +3712,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3939,7 +3751,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3978,7 +3790,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4017,7 +3829,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4056,7 +3868,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4095,7 +3907,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4134,7 +3946,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4173,7 +3985,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4212,7 +4024,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4251,7 +4063,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4290,7 +4102,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4329,7 +4141,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4368,7 +4180,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4407,7 +4219,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4446,7 +4258,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4485,7 +4297,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4524,7 +4336,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4563,7 +4375,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4602,7 +4414,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4641,7 +4453,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4680,7 +4492,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4719,7 +4531,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4758,7 +4570,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4797,7 +4609,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4836,7 +4648,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4875,7 +4687,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4914,7 +4726,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4953,7 +4765,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4992,7 +4804,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5031,7 +4843,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5070,7 +4882,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5109,7 +4921,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5148,7 +4960,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5187,7 +4999,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5226,7 +5038,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5265,7 +5077,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5304,7 +5116,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5343,7 +5155,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5382,7 +5194,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5421,7 +5233,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5460,7 +5272,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5499,7 +5311,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5538,7 +5350,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5577,7 +5389,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5616,7 +5428,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5655,7 +5467,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5694,7 +5506,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5733,7 +5545,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5772,7 +5584,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5811,7 +5623,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5850,7 +5662,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5889,7 +5701,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5928,7 +5740,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5967,7 +5779,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6006,7 +5818,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6045,7 +5857,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6084,7 +5896,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6123,7 +5935,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6162,7 +5974,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6201,7 +6013,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6240,7 +6052,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6279,7 +6091,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6318,7 +6130,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6357,7 +6169,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6396,7 +6208,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6435,7 +6247,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6474,7 +6286,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6513,7 +6325,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6552,7 +6364,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6591,7 +6403,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6630,7 +6442,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6669,7 +6481,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6708,7 +6520,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6747,7 +6559,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6782,518 +6594,608 @@
         <v>8568398.114977304</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>9.35</v>
+        <v>9.23</v>
       </c>
       <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F162" t="n">
+        <v>321706.7693</v>
+      </c>
+      <c r="G162" t="n">
+        <v>8246691.345677304</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F163" t="n">
+        <v>176030.7023</v>
+      </c>
+      <c r="G163" t="n">
+        <v>8422722.047977304</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10564.0761</v>
+      </c>
+      <c r="G164" t="n">
+        <v>8412157.971877305</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2112761.8469</v>
+      </c>
+      <c r="G165" t="n">
+        <v>6299396.124977306</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F166" t="n">
+        <v>373029.344</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5926366.780977306</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>283448.786</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5642917.994977306</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>101959.0489</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5744877.043877305</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="C169" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="F169" t="n">
+        <v>823490.3437</v>
+      </c>
+      <c r="G169" t="n">
+        <v>6568367.387577306</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>10</v>
+      </c>
+      <c r="C170" t="n">
+        <v>10</v>
+      </c>
+      <c r="D170" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>10</v>
+      </c>
+      <c r="F170" t="n">
+        <v>666825.1834</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5901542.204177305</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1354128.8433</v>
+      </c>
+      <c r="G171" t="n">
+        <v>7255671.047477305</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>340140.3136</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7255671.047477305</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>76945.5076</v>
+      </c>
+      <c r="G173" t="n">
+        <v>7178725.539877305</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E174" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>160214.3173</v>
+      </c>
+      <c r="G174" t="n">
+        <v>7338939.857177305</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1324654.270056311</v>
+      </c>
+      <c r="G175" t="n">
+        <v>7338939.857177305</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1128198.626228305</v>
+      </c>
+      <c r="G176" t="n">
+        <v>8467138.483405611</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1.061310160427808</v>
-      </c>
-      <c r="M161" t="n">
-        <v>1.003208556149733</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="F162" t="n">
-        <v>321706.7693</v>
-      </c>
-      <c r="G162" t="n">
-        <v>8246691.345677304</v>
-      </c>
-      <c r="H162" t="n">
-        <v>3</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F163" t="n">
-        <v>176030.7023</v>
-      </c>
-      <c r="G163" t="n">
-        <v>8422722.047977304</v>
-      </c>
-      <c r="H163" t="n">
-        <v>3</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10564.0761</v>
-      </c>
-      <c r="G164" t="n">
-        <v>8412157.971877305</v>
-      </c>
-      <c r="H164" t="n">
-        <v>3</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2112761.8469</v>
-      </c>
-      <c r="G165" t="n">
-        <v>6299396.124977306</v>
-      </c>
-      <c r="H165" t="n">
-        <v>3</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="F166" t="n">
-        <v>373029.344</v>
-      </c>
-      <c r="G166" t="n">
-        <v>5926366.780977306</v>
-      </c>
-      <c r="H166" t="n">
-        <v>3</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>283448.786</v>
-      </c>
-      <c r="G167" t="n">
-        <v>5642917.994977306</v>
-      </c>
-      <c r="H167" t="n">
-        <v>3</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F168" t="n">
-        <v>101959.0489</v>
-      </c>
-      <c r="G168" t="n">
-        <v>5744877.043877305</v>
-      </c>
-      <c r="H168" t="n">
-        <v>3</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="C169" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="F169" t="n">
-        <v>823490.3437</v>
-      </c>
-      <c r="G169" t="n">
-        <v>6568367.387577306</v>
-      </c>
-      <c r="H169" t="n">
-        <v>3</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>10</v>
-      </c>
-      <c r="C170" t="n">
-        <v>10</v>
-      </c>
-      <c r="D170" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="E170" t="n">
-        <v>10</v>
-      </c>
-      <c r="F170" t="n">
-        <v>666825.1834</v>
-      </c>
-      <c r="G170" t="n">
-        <v>5901542.204177305</v>
-      </c>
-      <c r="H170" t="n">
-        <v>3</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D171" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E171" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1354128.8433</v>
-      </c>
-      <c r="G171" t="n">
-        <v>7255671.047477305</v>
-      </c>
-      <c r="H171" t="n">
-        <v>3</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D172" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F172" t="n">
-        <v>340140.3136</v>
-      </c>
-      <c r="G172" t="n">
-        <v>7255671.047477305</v>
-      </c>
-      <c r="H172" t="n">
-        <v>3</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="C173" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="E173" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F173" t="n">
-        <v>76945.5076</v>
-      </c>
-      <c r="G173" t="n">
-        <v>7178725.539877305</v>
-      </c>
-      <c r="H173" t="n">
-        <v>3</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C174" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D174" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E174" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F174" t="n">
-        <v>160214.3173</v>
-      </c>
-      <c r="G174" t="n">
-        <v>7338939.857177305</v>
-      </c>
-      <c r="H174" t="n">
-        <v>3</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C175" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D175" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="E175" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1324654.270056311</v>
-      </c>
-      <c r="G175" t="n">
-        <v>7338939.857177305</v>
-      </c>
-      <c r="H175" t="n">
-        <v>3</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="D176" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="E176" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1128198.626228305</v>
-      </c>
-      <c r="G176" t="n">
-        <v>8467138.483405611</v>
-      </c>
-      <c r="H176" t="n">
-        <v>3</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>1.121760563380282</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.017334777898158</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7318,7 +7220,7 @@
         <v>6448126.968062473</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7351,7 +7253,7 @@
         <v>4409065.514062474</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7384,7 +7286,7 @@
         <v>4711884.358062473</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7417,7 +7319,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7450,7 +7352,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7483,7 +7385,7 @@
         <v>1921637.588062473</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7516,7 +7418,7 @@
         <v>1921637.588062473</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7549,7 +7451,7 @@
         <v>2112334.187162473</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7582,7 +7484,7 @@
         <v>2112334.187162473</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7615,7 +7517,7 @@
         <v>2710133.657762473</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7648,7 +7550,7 @@
         <v>2409051.219262473</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7681,7 +7583,7 @@
         <v>2461934.444162473</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7714,7 +7616,7 @@
         <v>3221205.130362472</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7747,7 +7649,7 @@
         <v>3149687.987362472</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7780,7 +7682,7 @@
         <v>2335699.613462472</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7813,7 +7715,7 @@
         <v>2340366.238462472</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7846,7 +7748,7 @@
         <v>1888894.502262472</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7879,7 +7781,7 @@
         <v>1963298.723562472</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7912,7 +7814,7 @@
         <v>2113680.470062472</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7945,7 +7847,7 @@
         <v>2113680.470062472</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7978,7 +7880,7 @@
         <v>2113680.470062472</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8011,7 +7913,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8044,7 +7946,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8110,7 +8012,7 @@
         <v>2008338.955362472</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8143,7 +8045,7 @@
         <v>1841432.983862472</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8176,7 +8078,7 @@
         <v>1616034.438262472</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8209,7 +8111,7 @@
         <v>1616034.438262472</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8242,7 +8144,7 @@
         <v>895773.7611624724</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8275,7 +8177,7 @@
         <v>-502630.4788375276</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8308,7 +8210,7 @@
         <v>-498334.3994375276</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8341,7 +8243,7 @@
         <v>-498334.3994375276</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8374,7 +8276,7 @@
         <v>-2385314.399437528</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8440,7 +8342,7 @@
         <v>-2378233.836037527</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8473,7 +8375,7 @@
         <v>-2378233.836037527</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8506,7 +8408,7 @@
         <v>-2385089.145637527</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8539,7 +8441,7 @@
         <v>-2378910.770037527</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8638,7 +8540,7 @@
         <v>-2752708.568237527</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8671,7 +8573,7 @@
         <v>-2822583.494337527</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8704,7 +8606,7 @@
         <v>-3699079.817337527</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8737,7 +8639,7 @@
         <v>-3157104.917837527</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8770,7 +8672,7 @@
         <v>-3152104.917837527</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8803,7 +8705,7 @@
         <v>-3208281.284237527</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8836,7 +8738,7 @@
         <v>-2952726.222837527</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8902,7 +8804,7 @@
         <v>-3473559.921137527</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8935,7 +8837,7 @@
         <v>-3583600.737437527</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9298,7 +9200,7 @@
         <v>-3816233.111398487</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9331,7 +9233,7 @@
         <v>-3628345.911398487</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9364,7 +9266,7 @@
         <v>-3628335.911398487</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9397,7 +9299,7 @@
         <v>-3633102.423998487</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9430,7 +9332,7 @@
         <v>-3881360.736298487</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9496,7 +9398,7 @@
         <v>-3803468.732398487</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9529,7 +9431,7 @@
         <v>-3802458.732398487</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9562,7 +9464,7 @@
         <v>-3796919.531598487</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9595,7 +9497,7 @@
         <v>-3805720.696626692</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9628,7 +9530,7 @@
         <v>-4025377.064626692</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10024,7 +9926,7 @@
         <v>-4295904.418326693</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10057,7 +9959,7 @@
         <v>-4295904.418326693</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -12697,7 +12599,7 @@
         <v>-3756445.682155988</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13687,7 +13589,7 @@
         <v>-5320223.709355989</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13753,7 +13655,7 @@
         <v>-5364166.817055988</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13786,7 +13688,7 @@
         <v>-5364166.817055988</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13819,7 +13721,7 @@
         <v>-5332991.851255988</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13885,7 +13787,7 @@
         <v>-5308342.843472209</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13918,7 +13820,7 @@
         <v>-5313106.666672209</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13951,7 +13853,7 @@
         <v>-5313106.666672209</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13984,7 +13886,7 @@
         <v>-6062226.755472209</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14017,7 +13919,7 @@
         <v>-5818380.113072209</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14050,7 +13952,7 @@
         <v>-5829520.776172209</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14215,7 +14117,7 @@
         <v>-5714529.062755987</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -23037,6 +22939,6 @@
       <c r="M653" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest MIX.xlsx
+++ b/BackTest/2019-10-29 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>221565.8105917559</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>485649.0923917559</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>679248.2116917559</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>679248.2116917559</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -1395,14 +1375,10 @@
         <v>-439865.3663082441</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1432,19 +1408,11 @@
         <v>-641167.1115082441</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J31" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1473,19 +1441,11 @@
         <v>-613701.1389082441</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1514,19 +1474,11 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1555,19 +1507,11 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J34" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1596,19 +1540,11 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J35" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1637,19 +1573,11 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1678,19 +1606,11 @@
         <v>-67189.94750824406</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1719,19 +1639,11 @@
         <v>-97199.94750824406</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J38" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1760,19 +1672,11 @@
         <v>-97199.94750824406</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J39" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1705,11 @@
         <v>-109168.3936082441</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1842,19 +1738,11 @@
         <v>-109168.3936082441</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1883,19 +1771,11 @@
         <v>-109168.3936082441</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1924,19 +1804,11 @@
         <v>-109097.6855082441</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1965,19 +1837,11 @@
         <v>-109097.6855082441</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2006,19 +1870,11 @@
         <v>-109215.5962082441</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2047,19 +1903,11 @@
         <v>-170323.1474082441</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="J46" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2088,19 +1936,11 @@
         <v>-170323.1474082441</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2129,19 +1969,11 @@
         <v>48135.14099175594</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2170,19 +2002,11 @@
         <v>48135.14099175594</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J49" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2211,19 +2035,11 @@
         <v>-1874.859008244064</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J50" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2252,19 +2068,11 @@
         <v>-1874.859008244064</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J51" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2293,19 +2101,11 @@
         <v>-11003.32220824406</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2334,19 +2134,11 @@
         <v>-19409.51220824406</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2375,19 +2167,11 @@
         <v>190020.3771917559</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2416,19 +2200,11 @@
         <v>184798.4810917559</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2457,19 +2233,11 @@
         <v>184798.4810917559</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="J56" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2498,19 +2266,11 @@
         <v>184798.4810917559</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2539,19 +2299,11 @@
         <v>165285.4982917559</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2580,19 +2332,11 @@
         <v>168030.3791917559</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="J59" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2621,19 +2365,11 @@
         <v>168030.3791917559</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2662,19 +2398,11 @@
         <v>168040.3791917559</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2703,19 +2431,11 @@
         <v>139310.1747917559</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2744,19 +2464,11 @@
         <v>89133.85339175591</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2785,19 +2497,11 @@
         <v>89143.85339175591</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J64" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2829,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2865,19 +2563,11 @@
         <v>89143.85339175591</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J66" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2906,19 +2596,11 @@
         <v>-145799.7042082441</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2947,19 +2629,11 @@
         <v>-95448.2618082441</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J68" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2988,19 +2662,11 @@
         <v>-20066.1653082441</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3029,19 +2695,11 @@
         <v>-20066.1653082441</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3070,19 +2728,11 @@
         <v>-329918.6969082441</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="J71" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3111,19 +2761,11 @@
         <v>-319299.9938082441</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="J72" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3152,19 +2794,11 @@
         <v>-319299.9938082441</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3193,19 +2827,11 @@
         <v>-271030.5821082441</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="J74" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3234,19 +2860,11 @@
         <v>-264030.5821082441</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="J75" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3275,19 +2893,11 @@
         <v>261925.1499917559</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3316,19 +2926,11 @@
         <v>2681451.209691756</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3360,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3399,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3438,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3477,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3516,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3555,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3594,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3633,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3672,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3711,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3750,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3789,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3828,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3867,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3906,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3945,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3984,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4023,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4062,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4101,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4140,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4179,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4218,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4257,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4296,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4335,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4374,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4413,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4452,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4491,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4530,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4569,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4608,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4647,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4686,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4722,17 +4114,11 @@
         <v>2713593.215591756</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4761,17 +4147,11 @@
         <v>2713593.215591756</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4800,17 +4180,11 @@
         <v>2817154.58022478</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4842,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4878,17 +4246,11 @@
         <v>2633159.21942478</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4917,17 +4279,11 @@
         <v>2633159.21942478</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4959,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4998,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5037,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5076,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5115,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5154,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5193,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5232,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5271,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5310,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5349,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5388,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5427,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5466,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5505,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5544,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5583,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5661,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5700,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5739,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5778,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5817,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5856,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5895,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5934,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5973,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6012,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6051,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6090,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6129,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6168,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6207,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6246,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6285,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6324,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6363,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6402,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6441,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6480,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6519,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6558,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6597,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6636,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6675,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6714,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6753,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6792,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6831,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6870,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6909,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6948,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6987,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7026,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7065,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7104,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7143,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7179,23 +6193,15 @@
         <v>8467138.483405611</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>1.121760563380282</v>
-      </c>
-      <c r="M176" t="n">
-        <v>1.017334777898158</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7220,7 +6226,7 @@
         <v>6448126.968062473</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7253,7 +6259,7 @@
         <v>4409065.514062474</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7286,7 +6292,7 @@
         <v>4711884.358062473</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7319,7 +6325,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7352,7 +6358,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7385,7 +6391,7 @@
         <v>1921637.588062473</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7418,7 +6424,7 @@
         <v>1921637.588062473</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7550,7 +6556,7 @@
         <v>2409051.219262473</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7583,7 +6589,7 @@
         <v>2461934.444162473</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7616,7 +6622,7 @@
         <v>3221205.130362472</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7649,7 +6655,7 @@
         <v>3149687.987362472</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7682,7 +6688,7 @@
         <v>2335699.613462472</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7715,7 +6721,7 @@
         <v>2340366.238462472</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7748,7 +6754,7 @@
         <v>1888894.502262472</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7781,7 +6787,7 @@
         <v>1963298.723562472</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7814,7 +6820,7 @@
         <v>2113680.470062472</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7847,7 +6853,7 @@
         <v>2113680.470062472</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7880,7 +6886,7 @@
         <v>2113680.470062472</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7913,7 +6919,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7979,7 +6985,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8177,7 +7183,7 @@
         <v>-502630.4788375276</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8210,7 +7216,7 @@
         <v>-498334.3994375276</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8243,7 +7249,7 @@
         <v>-498334.3994375276</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8276,7 +7282,7 @@
         <v>-2385314.399437528</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8342,7 +7348,7 @@
         <v>-2378233.836037527</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8375,7 +7381,7 @@
         <v>-2378233.836037527</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8408,7 +7414,7 @@
         <v>-2385089.145637527</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8441,7 +7447,7 @@
         <v>-2378910.770037527</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8540,7 +7546,7 @@
         <v>-2752708.568237527</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8573,7 +7579,7 @@
         <v>-2822583.494337527</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8606,7 +7612,7 @@
         <v>-3699079.817337527</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8639,7 +7645,7 @@
         <v>-3157104.917837527</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8672,7 +7678,7 @@
         <v>-3152104.917837527</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8705,7 +7711,7 @@
         <v>-3208281.284237527</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -22301,10 +21307,14 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J634" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
@@ -22337,8 +21347,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22370,8 +21386,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22400,10 +21422,14 @@
         <v>-14073624.09493041</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J637" t="n">
+        <v>9.5</v>
+      </c>
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
@@ -22433,11 +21459,19 @@
         <v>-14073624.09493041</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J638" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22469,8 +21503,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22499,10 +21539,14 @@
         <v>-14086777.90893041</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J640" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
@@ -22532,11 +21576,19 @@
         <v>-13981215.72833041</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J641" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22565,11 +21617,19 @@
         <v>-13984373.01744362</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J642" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22598,11 +21658,19 @@
         <v>-13986619.43004362</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J643" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22631,11 +21699,19 @@
         <v>-14045644.48264362</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="J644" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22664,11 +21740,19 @@
         <v>-14043012.09144362</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J645" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22697,11 +21781,19 @@
         <v>-14023558.00344467</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="J646" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22730,11 +21822,19 @@
         <v>-14023558.00344467</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J647" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22763,11 +21863,19 @@
         <v>-14033558.00344467</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J648" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22796,11 +21904,19 @@
         <v>-14034425.19354467</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="J649" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22829,11 +21945,19 @@
         <v>-14109810.81324824</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="J650" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22862,11 +21986,19 @@
         <v>-14109810.81324824</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J651" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22895,11 +22027,19 @@
         <v>-14109810.81324824</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J652" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22928,17 +22068,25 @@
         <v>-14100318.15151102</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J653" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
       <c r="M653" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest MIX.xlsx
+++ b/BackTest/2019-10-29 BackTest MIX.xlsx
@@ -4114,7 +4114,7 @@
         <v>2713593.215591756</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>2713593.215591756</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>2817154.58022478</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>2633159.21942478</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2633159.21942478</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>7338939.857177305</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>8467138.483405611</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>6448126.968062473</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>4409065.514062474</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>4711884.358062473</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>1921637.588062473</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>2112334.187162473</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>2112334.187162473</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>2710133.657762473</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>2335699.613462472</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>2008338.955362472</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1841432.983862472</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1616034.438262472</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1616034.438262472</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>895773.7611624724</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -20317,10 +20317,14 @@
         <v>-13796122.82780956</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="J604" t="n">
+        <v>9.58</v>
+      </c>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
@@ -20350,11 +20354,19 @@
         <v>-13796122.82780956</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J605" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20395,19 @@
         <v>-13796122.82780956</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J606" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20416,10 +20436,14 @@
         <v>-13796107.49870956</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J607" t="n">
+        <v>9.539999999999999</v>
+      </c>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
@@ -20449,11 +20473,19 @@
         <v>-13796813.76300956</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="J608" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20482,11 +20514,19 @@
         <v>-13796813.76300956</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J609" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20515,11 +20555,19 @@
         <v>-13796813.76300956</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J610" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20548,11 +20596,19 @@
         <v>-13796703.76300956</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J611" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +20637,19 @@
         <v>-13796703.76300956</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="J612" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +20678,19 @@
         <v>-13785099.7525887</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="J613" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +20719,19 @@
         <v>-13785099.7525887</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J614" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +20760,19 @@
         <v>-13785099.7525887</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J615" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +20801,19 @@
         <v>-13749464.73120956</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J616" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +20842,19 @@
         <v>-13749464.73120956</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J617" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +20883,19 @@
         <v>-13749484.73120956</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J618" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +20924,19 @@
         <v>-13749374.73120956</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J619" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +20965,19 @@
         <v>-13749374.73120956</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J620" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +21006,19 @@
         <v>-13749374.73120956</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J621" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21047,19 @@
         <v>-13749374.73120956</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J622" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21088,19 @@
         <v>-13773184.12523041</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J623" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21129,19 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J624" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21170,19 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J625" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21211,19 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J626" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21252,19 @@
         <v>-13757825.11413041</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J627" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21293,19 @@
         <v>-13784253.85053041</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J628" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21334,19 @@
         <v>-14178412.15333041</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="J629" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21375,19 @@
         <v>-14069907.67393041</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J630" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +21416,19 @@
         <v>-14069797.67393041</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J631" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +21457,19 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="J632" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21274,11 +21498,19 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J633" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21313,9 +21545,13 @@
         <v>9.550000000000001</v>
       </c>
       <c r="J634" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="K634" t="inlineStr"/>
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,15 +21580,17 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="J635" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L635" t="n">
@@ -21383,15 +21621,17 @@
         <v>-14073734.09493041</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="J636" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L636" t="n">
@@ -21428,9 +21668,13 @@
         <v>9.5</v>
       </c>
       <c r="J637" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K637" t="inlineStr"/>
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21465,11 +21709,11 @@
         <v>9.550000000000001</v>
       </c>
       <c r="J638" t="n">
-        <v>9.5</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L638" t="n">
@@ -21500,15 +21744,17 @@
         <v>-14073624.09493041</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="J639" t="n">
-        <v>9.5</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L639" t="n">
@@ -21545,9 +21791,13 @@
         <v>9.550000000000001</v>
       </c>
       <c r="J640" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="K640" t="inlineStr"/>
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21582,11 +21832,11 @@
         <v>9.460000000000001</v>
       </c>
       <c r="J641" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L641" t="n">
@@ -21623,7 +21873,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="J642" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21664,7 +21914,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="J643" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21705,7 +21955,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="J644" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21746,7 +21996,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="J645" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21787,7 +22037,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="J646" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -21828,7 +22078,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="J647" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -21869,7 +22119,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="J648" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -21910,7 +22160,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="J649" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -21951,7 +22201,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="J650" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -21992,7 +22242,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="J651" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22033,7 +22283,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="J652" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22074,7 +22324,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="J653" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
